--- a/Ergebnisse_Teil_1/Study_15_10_2025_Taguchi_Modell_1.1_KS_Holdout_seed_999/metrics/Trial_98__Reeval_Taguchi_Modell_1.1.xlsx
+++ b/Ergebnisse_Teil_1/Study_15_10_2025_Taguchi_Modell_1.1_KS_Holdout_seed_999/metrics/Trial_98__Reeval_Taguchi_Modell_1.1.xlsx
@@ -5423,13 +5423,13 @@
                   <c:v>0.6662055253982544</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>49.18424606323242</c:v>
+                  <c:v>49.18425750732422</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>37.53662872314453</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>44.55876922607422</c:v>
+                  <c:v>44.55876541137695</c:v>
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>0.6662055253982544</c:v>
@@ -5444,13 +5444,13 @@
                   <c:v>0.6662055253982544</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>30.03996467590332</c:v>
+                  <c:v>30.03996086120605</c:v>
                 </c:pt>
                 <c:pt idx="10">
                   <c:v>0.6662055253982544</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>50.24584197998047</c:v>
+                  <c:v>50.24583435058594</c:v>
                 </c:pt>
                 <c:pt idx="12">
                   <c:v>0.6662055253982544</c:v>
@@ -5459,7 +5459,7 @@
                   <c:v>0.6662055253982544</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>25.6729907989502</c:v>
+                  <c:v>25.67298889160156</c:v>
                 </c:pt>
                 <c:pt idx="15">
                   <c:v>2.903724670410156</c:v>
@@ -5483,7 +5483,7 @@
                   <c:v>0.6662055253982544</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>50.10229110717773</c:v>
+                  <c:v>50.10230255126953</c:v>
                 </c:pt>
                 <c:pt idx="23">
                   <c:v>0.6662055253982544</c:v>
@@ -5498,7 +5498,7 @@
                   <c:v>0.6662055253982544</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>52.79609680175781</c:v>
+                  <c:v>52.79609298706055</c:v>
                 </c:pt>
                 <c:pt idx="28">
                   <c:v>0.6662055253982544</c:v>
@@ -5513,7 +5513,7 @@
                   <c:v>0.6662055253982544</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>20.76813888549805</c:v>
+                  <c:v>20.76814270019531</c:v>
                 </c:pt>
                 <c:pt idx="33">
                   <c:v>0.6662055253982544</c:v>
@@ -5522,13 +5522,13 @@
                   <c:v>0.6662055253982544</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>38.02298355102539</c:v>
+                  <c:v>38.02297210693359</c:v>
                 </c:pt>
                 <c:pt idx="36">
                   <c:v>0.6662055253982544</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>21.6650505065918</c:v>
+                  <c:v>21.66504859924316</c:v>
                 </c:pt>
                 <c:pt idx="38">
                   <c:v>21.28091812133789</c:v>
@@ -5537,7 +5537,7 @@
                   <c:v>0.6662055253982544</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>46.7037467956543</c:v>
+                  <c:v>46.70375442504883</c:v>
                 </c:pt>
                 <c:pt idx="41">
                   <c:v>0.6662055253982544</c:v>
@@ -5561,7 +5561,7 @@
                   <c:v>0.6662055253982544</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>49.45248794555664</c:v>
+                  <c:v>49.45248031616211</c:v>
                 </c:pt>
                 <c:pt idx="49">
                   <c:v>0.6662055253982544</c:v>
@@ -5606,7 +5606,7 @@
                   <c:v>0.6662055253982544</c:v>
                 </c:pt>
                 <c:pt idx="63">
-                  <c:v>12.5560474395752</c:v>
+                  <c:v>12.55605220794678</c:v>
                 </c:pt>
                 <c:pt idx="64">
                   <c:v>0.6662055253982544</c:v>
@@ -5660,7 +5660,7 @@
                   <c:v>0.6662055253982544</c:v>
                 </c:pt>
                 <c:pt idx="81">
-                  <c:v>11.30623054504395</c:v>
+                  <c:v>11.30623340606689</c:v>
                 </c:pt>
                 <c:pt idx="82">
                   <c:v>0.6662055253982544</c:v>
@@ -6443,7 +6443,7 @@
         <v>48.4769</v>
       </c>
       <c r="F4">
-        <v>49.18424606323242</v>
+        <v>49.18425750732422</v>
       </c>
       <c r="G4">
         <v>72</v>
@@ -6507,7 +6507,7 @@
         <v>45.684</v>
       </c>
       <c r="F6">
-        <v>44.55876922607422</v>
+        <v>44.55876541137695</v>
       </c>
       <c r="G6">
         <v>0</v>
@@ -6631,7 +6631,7 @@
         <v>0</v>
       </c>
       <c r="F11">
-        <v>30.03996467590332</v>
+        <v>30.03996086120605</v>
       </c>
     </row>
     <row r="12" spans="1:19">
@@ -6671,7 +6671,7 @@
         <v>50.4351</v>
       </c>
       <c r="F13">
-        <v>50.24584197998047</v>
+        <v>50.24583435058594</v>
       </c>
     </row>
     <row r="14" spans="1:19">
@@ -6731,7 +6731,7 @@
         <v>48.8989</v>
       </c>
       <c r="F16">
-        <v>25.6729907989502</v>
+        <v>25.67298889160156</v>
       </c>
     </row>
     <row r="17" spans="1:6">
@@ -6891,7 +6891,7 @@
         <v>46.0768</v>
       </c>
       <c r="F24">
-        <v>50.10229110717773</v>
+        <v>50.10230255126953</v>
       </c>
     </row>
     <row r="25" spans="1:6">
@@ -6991,7 +6991,7 @@
         <v>49.5298</v>
       </c>
       <c r="F29">
-        <v>52.79609680175781</v>
+        <v>52.79609298706055</v>
       </c>
     </row>
     <row r="30" spans="1:6">
@@ -7091,7 +7091,7 @@
         <v>0</v>
       </c>
       <c r="F34">
-        <v>20.76813888549805</v>
+        <v>20.76814270019531</v>
       </c>
     </row>
     <row r="35" spans="1:6">
@@ -7151,7 +7151,7 @@
         <v>48.8804</v>
       </c>
       <c r="F37">
-        <v>38.02298355102539</v>
+        <v>38.02297210693359</v>
       </c>
     </row>
     <row r="38" spans="1:6">
@@ -7191,7 +7191,7 @@
         <v>45.1545</v>
       </c>
       <c r="F39">
-        <v>21.6650505065918</v>
+        <v>21.66504859924316</v>
       </c>
     </row>
     <row r="40" spans="1:6">
@@ -7251,7 +7251,7 @@
         <v>44.6167</v>
       </c>
       <c r="F42">
-        <v>46.7037467956543</v>
+        <v>46.70375442504883</v>
       </c>
     </row>
     <row r="43" spans="1:6">
@@ -7411,7 +7411,7 @@
         <v>50.0511</v>
       </c>
       <c r="F50">
-        <v>49.45248794555664</v>
+        <v>49.45248031616211</v>
       </c>
     </row>
     <row r="51" spans="1:6">
@@ -7711,7 +7711,7 @@
         <v>0</v>
       </c>
       <c r="F65">
-        <v>12.5560474395752</v>
+        <v>12.55605220794678</v>
       </c>
     </row>
     <row r="66" spans="1:6">
@@ -8071,7 +8071,7 @@
         <v>0</v>
       </c>
       <c r="F83">
-        <v>11.30623054504395</v>
+        <v>11.30623340606689</v>
       </c>
     </row>
     <row r="84" spans="1:6">
